--- a/tests/testthat/fixtures/ex1/tables/irt_dich.xlsx
+++ b/tests/testthat/fixtures/ex1/tables/irt_dich.xlsx
@@ -546,31 +546,31 @@
         <v>1000</v>
       </c>
       <c r="D2" t="n">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E2" t="n">
-        <v>84.04</v>
+        <v>83.82</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.08</v>
+        <v>-2.06</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L2" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -584,31 +584,31 @@
         <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E3" t="n">
-        <v>79.62</v>
+        <v>79.56</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.72</v>
+        <v>-1.71</v>
       </c>
       <c r="G3" t="n">
         <v>0.09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K3" t="n">
         <v>0.04</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
@@ -622,31 +622,31 @@
         <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E4" t="n">
-        <v>76.58</v>
+        <v>76.6</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.51</v>
+        <v>-1.5</v>
       </c>
       <c r="G4" t="n">
         <v>0.08</v>
       </c>
       <c r="H4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.72</v>
+        <v>-0.53</v>
       </c>
       <c r="J4" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="K4" t="n">
         <v>0.03</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -660,13 +660,13 @@
         <v>1000</v>
       </c>
       <c r="D5" t="n">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>73.51</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.33</v>
+        <v>-1.29</v>
       </c>
       <c r="G5" t="n">
         <v>0.08</v>
@@ -675,16 +675,16 @@
         <v>0.98</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.48</v>
+        <v>-0.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="K5" t="n">
         <v>0.04</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -698,13 +698,13 @@
         <v>1000</v>
       </c>
       <c r="D6" t="n">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E6" t="n">
-        <v>65.54</v>
+        <v>65.27</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.82</v>
+        <v>-0.8</v>
       </c>
       <c r="G6" t="n">
         <v>0.08</v>
@@ -713,7 +713,7 @@
         <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="J6" t="n">
         <v>0.36</v>
@@ -736,28 +736,28 @@
         <v>1000</v>
       </c>
       <c r="D7" t="n">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="E7" t="n">
-        <v>62.45</v>
+        <v>62.16</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.65</v>
+        <v>-0.64</v>
       </c>
       <c r="G7" t="n">
         <v>0.08</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04</v>
+        <v>-0.21</v>
       </c>
       <c r="J7" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -774,31 +774,31 @@
         <v>1000</v>
       </c>
       <c r="D8" t="n">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="E8" t="n">
-        <v>58.3</v>
+        <v>57.49</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.42</v>
+        <v>-0.39</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.14</v>
+        <v>0.23</v>
       </c>
       <c r="J8" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="9">
@@ -812,31 +812,31 @@
         <v>1000</v>
       </c>
       <c r="D9" t="n">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="E9" t="n">
-        <v>52.46</v>
+        <v>52.92</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="H9" t="n">
         <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="J9" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="K9" t="n">
         <v>0.04</v>
       </c>
       <c r="L9" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="10">
@@ -850,31 +850,31 @@
         <v>1000</v>
       </c>
       <c r="D10" t="n">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="E10" t="n">
-        <v>45.65</v>
+        <v>46.65</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="H10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0.78</v>
+        <v>1.07</v>
       </c>
       <c r="J10" t="n">
         <v>0.36</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L10" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="11">
@@ -888,13 +888,13 @@
         <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="E11" t="n">
-        <v>40.16</v>
+        <v>40.78</v>
       </c>
       <c r="F11" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
         <v>0.08</v>
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="J11" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="12">
@@ -926,31 +926,31 @@
         <v>1000</v>
       </c>
       <c r="D12" t="n">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="E12" t="n">
-        <v>35.66</v>
+        <v>35.27</v>
       </c>
       <c r="F12" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="G12" t="n">
         <v>0.08</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05</v>
+        <v>-0.88</v>
       </c>
       <c r="J12" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="K12" t="n">
         <v>0.03</v>
       </c>
       <c r="L12" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13">
@@ -964,31 +964,31 @@
         <v>1000</v>
       </c>
       <c r="D13" t="n">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="E13" t="n">
-        <v>30.53</v>
+        <v>31.85</v>
       </c>
       <c r="F13" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="G13" t="n">
         <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I13" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="J13" t="n">
         <v>0.34</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L13" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         <v>1000</v>
       </c>
       <c r="D14" t="n">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="E14" t="n">
-        <v>24.43</v>
+        <v>24.01</v>
       </c>
       <c r="F14" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I14" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="J14" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="K14" t="n">
         <v>0.04</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="15">
@@ -1040,31 +1040,31 @@
         <v>1000</v>
       </c>
       <c r="D15" t="n">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="E15" t="n">
-        <v>20.49</v>
+        <v>20.65</v>
       </c>
       <c r="F15" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="n">
         <v>0.12</v>
       </c>
       <c r="H15" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.36</v>
+        <v>-0.85</v>
       </c>
       <c r="J15" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="16">
@@ -1078,31 +1078,31 @@
         <v>1000</v>
       </c>
       <c r="D16" t="n">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E16" t="n">
-        <v>18.86</v>
+        <v>16.23</v>
       </c>
       <c r="F16" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H16" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.17</v>
+        <v>0.08</v>
       </c>
       <c r="J16" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
@@ -1156,19 +1156,19 @@
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>13654</v>
+        <v>13914</v>
       </c>
       <c r="E2" t="n">
-        <v>13686</v>
+        <v>13946</v>
       </c>
       <c r="F2" t="n">
-        <v>13764</v>
+        <v>14024</v>
       </c>
       <c r="G2" t="n">
-        <v>0.732</v>
+        <v>0.738</v>
       </c>
       <c r="H2" t="n">
-        <v>0.657</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -1182,19 +1182,19 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>13647</v>
+        <v>13902</v>
       </c>
       <c r="E3" t="n">
-        <v>13707</v>
+        <v>13962</v>
       </c>
       <c r="F3" t="n">
-        <v>13854</v>
+        <v>14110</v>
       </c>
       <c r="G3" t="n">
-        <v>0.733</v>
+        <v>0.739</v>
       </c>
       <c r="H3" t="n">
-        <v>0.659</v>
+        <v>0.666</v>
       </c>
     </row>
   </sheetData>
